--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2399022.596538929</v>
+        <v>-2401605.628608658</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>129.9415567268614</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>29.76498982117775</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>65.23590650983967</v>
+        <v>145.6218733998547</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5748211465598</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>251.2852794514161</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332609</v>
+        <v>119.0424311800743</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>108.574821146562</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.4384179530384</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.76710371162985</v>
+        <v>15.28536417275856</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076753</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705737</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222822</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>27.68426743653211</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456782</v>
+        <v>110.0177171766852</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>136.9649966249146</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327675</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8784673763399</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.0385136149756</v>
       </c>
       <c r="C28" t="n">
-        <v>158.453354531666</v>
+        <v>158.4533545316661</v>
       </c>
       <c r="D28" t="n">
-        <v>63.85811343393047</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796073</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>44.76793778822902</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.7306717253071</v>
       </c>
       <c r="H28" t="n">
-        <v>131.501246279262</v>
+        <v>131.5012462792621</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160369</v>
+        <v>72.47236975160381</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315985</v>
+        <v>57.58178014315996</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>172.2328194346829</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>208.6119837603265</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222823</v>
+        <v>277.3910078222824</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568661</v>
+        <v>243.3441767568663</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696291</v>
+        <v>277.7295317696293</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220753</v>
+        <v>216.9161888220754</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.791186785133</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308925</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871871</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3084.061055432366</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3084.061055432366</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2752.998168088795</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2400.229512818681</v>
+        <v>2394.678395166737</v>
       </c>
       <c r="X2" t="n">
-        <v>2026.763754557601</v>
+        <v>2394.678395166737</v>
       </c>
       <c r="Y2" t="n">
-        <v>1636.624422581789</v>
+        <v>2004.539063190925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.7326486742822</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="C4" t="n">
-        <v>229.7326486742821</v>
+        <v>751.9508228902785</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596506</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.096886488696</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068858</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596445</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757128</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="X4" t="n">
-        <v>411.3811135045219</v>
+        <v>920.8870058181853</v>
       </c>
       <c r="Y4" t="n">
-        <v>411.3811135045219</v>
+        <v>920.8870058181853</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204826</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204826</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>847.3980557622425</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1807.04966810862</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1585.283052678146</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1296.18018580379</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1296.18018580379</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>1296.18018580379</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>1068.190634905773</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>847.3980557622425</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1911.854786297828</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1911.854786297828</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1690.088170867354</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1400.985303992997</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1146.30081578711</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>856.8836457501499</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>856.8836457501499</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5130,16 +5130,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703113</v>
+        <v>956.9553291057247</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424044</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5197,16 +5197,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138414</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703113</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261841</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138483</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>517.9533196846363</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>371.0633721867259</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>203.8672729016059</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5440,16 +5440,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511909</v>
+        <v>800.5007694647284</v>
       </c>
       <c r="C22" t="n">
-        <v>779.614337923284</v>
+        <v>631.5645865368215</v>
       </c>
       <c r="D22" t="n">
-        <v>779.614337923284</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408908</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>314.2518478393658</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956953</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>982.1492342949681</v>
       </c>
     </row>
     <row r="23">
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400708</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400708</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576776</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576776</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725576</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138405</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046073</v>
+        <v>663.4384611046066</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382781</v>
+        <v>503.3845676382773</v>
       </c>
       <c r="D28" t="n">
-        <v>438.8814227555201</v>
+        <v>503.3845676382773</v>
       </c>
       <c r="E28" t="n">
-        <v>299.8506186347046</v>
+        <v>503.3845676382773</v>
       </c>
       <c r="F28" t="n">
-        <v>299.8506186347046</v>
+        <v>458.1644284582478</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347046</v>
+        <v>299.8506186347052</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384807</v>
+        <v>167.0210769384808</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6385,7 +6385,7 @@
         <v>182.7582133795879</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064187</v>
+        <v>453.1530078064186</v>
       </c>
       <c r="L28" t="n">
         <v>852.2571338836508</v>
@@ -6394,19 +6394,19 @@
         <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.087772077279</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687555</v>
+        <v>2087.322584687556</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162406</v>
+        <v>2388.703572162407</v>
       </c>
       <c r="Q28" t="n">
         <v>2516.607338790598</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504578</v>
+        <v>2458.443924504577</v>
       </c>
       <c r="S28" t="n">
         <v>2284.47137962106</v>
@@ -6418,16 +6418,16 @@
         <v>1793.559266911354</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167045</v>
+        <v>1547.757068167044</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591662</v>
+        <v>1267.222187591661</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155222</v>
+        <v>1048.114926155221</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732694</v>
+        <v>836.2046364732688</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6920,28 +6920,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150025</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>73.97641341275875</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>319.4759788962352</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.37956650837269</v>
+        <v>2.993599618357649</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744482</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.2691783702309</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434095</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>112.6104454096918</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294965</v>
+        <v>57.22910392194262</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.329716221309249</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626967</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.41624546988406</v>
+        <v>57.22910392194262</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96389301732005</v>
+        <v>139.8220064512506</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796074</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559694</v>
+        <v>91.8596436677405</v>
       </c>
       <c r="G28" t="n">
-        <v>156.730671725307</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-8.620734476282429e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1384958.042738269</v>
+        <v>1384958.04273827</v>
       </c>
     </row>
     <row r="9">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687494</v>
+        <v>32904.09773687495</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="D2" t="n">
-        <v>41052.08849321419</v>
-      </c>
       <c r="E2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="G2" t="n">
         <v>40357.32998450031</v>
       </c>
-      <c r="F2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>40357.32998450032</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>40357.32998450028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40357.32998450029</v>
       </c>
       <c r="J2" t="n">
         <v>40608.90191777582</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321417</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.9447400623</v>
+        <v>12392.9447400624</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569498</v>
+        <v>7034.773253569384</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.9447400623</v>
+        <v>12392.94474006242</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
@@ -26433,25 +26433,25 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
-        <v>16500.29683941613</v>
+        <v>16500.29683941608</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
+        <v>21597.66737493628</v>
+      </c>
+      <c r="N4" t="n">
         <v>21597.66737493622</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21597.66737493626</v>
       </c>
       <c r="O4" t="n">
         <v>21597.66737493622</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
+        <v>-159675.6949513731</v>
+      </c>
+      <c r="D6" t="n">
         <v>-159675.6949513732</v>
       </c>
-      <c r="D6" t="n">
-        <v>-159675.6949513733</v>
-      </c>
       <c r="E6" t="n">
-        <v>-399784.4697586045</v>
+        <v>-399819.2076840404</v>
       </c>
       <c r="F6" t="n">
-        <v>-74372.00795124954</v>
+        <v>-74406.74587668525</v>
       </c>
       <c r="G6" t="n">
-        <v>-74372.00795124954</v>
+        <v>-74406.74587668524</v>
       </c>
       <c r="H6" t="n">
-        <v>-74372.00795124954</v>
+        <v>-74406.74587668527</v>
       </c>
       <c r="I6" t="n">
-        <v>-74372.00795124957</v>
+        <v>-74406.74587668529</v>
       </c>
       <c r="J6" t="n">
-        <v>-302319.1583372123</v>
+        <v>-302341.3176659841</v>
       </c>
       <c r="K6" t="n">
-        <v>-96102.63947569975</v>
+        <v>-96102.63947569983</v>
       </c>
       <c r="L6" t="n">
-        <v>-83709.69473563757</v>
+        <v>-83709.69473563743</v>
       </c>
       <c r="M6" t="n">
         <v>-168764.7226711492</v>
       </c>
       <c r="N6" t="n">
-        <v>-83709.69473563744</v>
+        <v>-83709.69473563743</v>
       </c>
       <c r="O6" t="n">
-        <v>-90744.46798920691</v>
+        <v>-90744.46798920681</v>
       </c>
       <c r="P6" t="n">
-        <v>-96102.63947569972</v>
+        <v>-96102.63947569983</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961875</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507787</v>
+        <v>15.491180925078</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961872</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507787</v>
+        <v>15.49118092507802</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961875</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507787</v>
+        <v>15.491180925078</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244478</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>159.6364462020373</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818095</v>
+        <v>70.72659415136756</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>256.6980706244455</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192234</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841747</v>
+        <v>73.64678849728877</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.79346656696173</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.8399498299152</v>
+        <v>89.83994982991508</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765968</v>
+        <v>273.1260549765967</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860933</v>
+        <v>403.1354808860931</v>
       </c>
       <c r="M28" t="n">
-        <v>435.065893568007</v>
+        <v>435.0658935680069</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568693</v>
+        <v>430.4195995568692</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730073</v>
+        <v>382.0553662730072</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735868</v>
+        <v>304.4252398735867</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668602</v>
+        <v>129.1957238668601</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
